--- a/Events/2017-06-13-NYC/Schedule/Speaker Two Room Schedule.xlsx
+++ b/Events/2017-06-13-NYC/Schedule/Speaker Two Room Schedule.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Data\Github\70-534\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Data\Github\70-534\Events\2017-06-13-NYC\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Safe Journey Home :)</t>
-  </si>
-  <si>
-    <t>Room 1 Name {Room #}</t>
-  </si>
-  <si>
-    <t>Room 2 Name {Room #}</t>
   </si>
   <si>
     <t>Welcome</t>
@@ -242,6 +236,12 @@
   </si>
   <si>
     <t>Peter Laudati</t>
+  </si>
+  <si>
+    <t>Radio City {6604}</t>
+  </si>
+  <si>
+    <t>Winter Garden 5412</t>
   </si>
 </sst>
 </file>
@@ -329,17 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
-      <sz val="26"/>
-      <color rgb="FFFF0000"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
+      <b/>
+      <u/>
+      <sz val="26"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -709,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -820,21 +819,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -844,6 +834,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -904,7 +900,19 @@
     <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -924,18 +932,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,7 +1257,9 @@
   </sheetPr>
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1276,60 +1274,60 @@
   <sheetData>
     <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="19"/>
-      <c r="C1" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="C1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B2" s="2"/>
-      <c r="C2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="C2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
     </row>
     <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52"/>
     </row>
     <row r="4" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="54"/>
     </row>
     <row r="5" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>4</v>
+      <c r="D5" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="41" t="s">
-        <v>5</v>
+      <c r="F5" s="46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
@@ -1342,10 +1340,10 @@
       <c r="C6" s="29"/>
       <c r="D6" s="12"/>
       <c r="E6" s="28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
@@ -1356,16 +1354,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="75" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="67" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
@@ -1379,10 +1377,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="78"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="70"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A9" s="17">
@@ -1392,16 +1390,16 @@
         <v>45</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1411,14 +1409,14 @@
       <c r="B10" s="24">
         <v>15</v>
       </c>
-      <c r="C10" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="65"/>
-      <c r="E10" s="62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="63"/>
+      <c r="C10" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="64"/>
+      <c r="E10" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="62"/>
     </row>
     <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A11" s="17">
@@ -1428,16 +1426,16 @@
         <v>60</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D11" s="32" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
@@ -1448,16 +1446,16 @@
         <v>60</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
@@ -1467,14 +1465,14 @@
       <c r="B13" s="24">
         <v>60</v>
       </c>
-      <c r="C13" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="63"/>
+      <c r="C13" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A14" s="17">
@@ -1484,16 +1482,16 @@
         <v>75</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="31"/>
     </row>
@@ -1505,16 +1503,16 @@
         <v>75</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F15" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G15" s="31"/>
     </row>
@@ -1525,14 +1523,14 @@
       <c r="B16" s="24">
         <v>40</v>
       </c>
-      <c r="C16" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="65"/>
-      <c r="E16" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="63"/>
+      <c r="C16" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="64"/>
+      <c r="E16" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="62"/>
     </row>
     <row r="17" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="17">
@@ -1541,84 +1539,84 @@
       <c r="B17" s="24">
         <v>30</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" s="61"/>
+      <c r="C17" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="60"/>
     </row>
     <row r="18" spans="1:6" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A18" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B18" s="22"/>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
     </row>
     <row r="19" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
+      <c r="A19" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="36"/>
       <c r="F19" s="36"/>
     </row>
     <row r="20" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B20" s="2"/>
-      <c r="C20" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
     </row>
     <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="50">
+      <c r="A21" s="49">
         <v>0.35416666666666669</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
     </row>
     <row r="22" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="51"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
+      <c r="C22" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A23" s="17"/>
       <c r="B23" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>4</v>
+      <c r="D23" s="45" t="s">
+        <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="41" t="s">
-        <v>5</v>
+      <c r="F23" s="46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1629,16 +1627,16 @@
         <v>20</v>
       </c>
       <c r="C24" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
@@ -1649,16 +1647,16 @@
         <v>75</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1668,14 +1666,14 @@
       <c r="B26" s="24">
         <v>15</v>
       </c>
-      <c r="C26" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="62" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="63"/>
+      <c r="C26" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="64"/>
+      <c r="E26" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="62"/>
     </row>
     <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A27" s="17">
@@ -1685,16 +1683,16 @@
         <v>75</v>
       </c>
       <c r="C27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="F27" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1704,14 +1702,14 @@
       <c r="B28" s="24">
         <v>60</v>
       </c>
-      <c r="C28" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="63"/>
+      <c r="C28" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="62"/>
     </row>
     <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A29" s="17">
@@ -1721,16 +1719,16 @@
         <v>20</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="32" t="s">
-        <v>43</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1741,16 +1739,16 @@
         <v>20</v>
       </c>
       <c r="C30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="32" t="s">
-        <v>36</v>
-      </c>
       <c r="E30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="F30" s="33" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -1761,16 +1759,16 @@
         <v>20</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D31" s="32" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
@@ -1780,14 +1778,14 @@
       <c r="B32" s="24">
         <v>155</v>
       </c>
-      <c r="C32" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="65"/>
-      <c r="E32" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="63"/>
+      <c r="C32" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="64"/>
+      <c r="E32" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="62"/>
     </row>
     <row r="33" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="17">
@@ -1796,34 +1794,34 @@
       <c r="B33" s="24">
         <v>30</v>
       </c>
-      <c r="C33" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="61"/>
+      <c r="C33" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="60"/>
     </row>
     <row r="34" spans="1:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A34" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="57"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="56"/>
     </row>
     <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A35" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B35" s="67"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
+      <c r="A35" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -1887,8 +1885,8 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:D38"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1900,49 +1898,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="A1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="A2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53"/>
+      <c r="D3" s="52"/>
     </row>
     <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="55"/>
+      <c r="C4" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>4</v>
+      <c r="D5" s="45" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -1953,10 +1951,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="45" t="s">
-        <v>45</v>
+        <v>37</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -1969,8 +1967,8 @@
       <c r="C7" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="47" t="s">
-        <v>22</v>
+      <c r="D7" s="44" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -1981,10 +1979,10 @@
         <v>45</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D8" s="43" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -1994,10 +1992,10 @@
       <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="70"/>
+      <c r="C9" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="73"/>
     </row>
     <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
@@ -2007,10 +2005,10 @@
         <v>60</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="46" t="s">
-        <v>17</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2021,10 +2019,10 @@
         <v>60</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="46" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D11" s="43" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2034,10 +2032,10 @@
       <c r="B12" s="24">
         <v>60</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="63"/>
+      <c r="C12" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
@@ -2047,10 +2045,10 @@
         <v>75</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="46" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2061,10 +2059,10 @@
         <v>75</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="D14" s="43" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2074,10 +2072,10 @@
       <c r="B15" s="24">
         <v>40</v>
       </c>
-      <c r="C15" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="70"/>
+      <c r="C15" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="73"/>
     </row>
     <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17">
@@ -2086,65 +2084,65 @@
       <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="C16" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="72"/>
+      <c r="C16" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="75"/>
     </row>
     <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
+      <c r="A18" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
     </row>
     <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="50">
+      <c r="A20" s="49">
         <v>0.35416666666666669</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="55"/>
+      <c r="C21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
       <c r="B22" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="44" t="s">
-        <v>4</v>
+      <c r="D22" s="45" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2155,10 +2153,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2169,10 +2167,10 @@
         <v>75</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="46" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
@@ -2182,10 +2180,10 @@
       <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C25" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="70"/>
+      <c r="C25" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="73"/>
     </row>
     <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
@@ -2195,10 +2193,10 @@
         <v>75</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="46" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2208,10 +2206,10 @@
       <c r="B27" s="24">
         <v>60</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" s="63"/>
+      <c r="C27" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="62"/>
     </row>
     <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
@@ -2221,10 +2219,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" s="46" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2235,10 +2233,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="43" t="s">
         <v>34</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2249,10 +2247,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="46" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D30" s="43" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
@@ -2262,10 +2260,10 @@
       <c r="B31" s="24">
         <v>155</v>
       </c>
-      <c r="C31" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="70"/>
+      <c r="C31" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="73"/>
     </row>
     <row r="32" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="17">
@@ -2274,46 +2272,46 @@
       <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="71" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="72"/>
+      <c r="C32" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="75"/>
     </row>
     <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="A34" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="68"/>
+      <c r="C35" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -2361,8 +2359,8 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2375,46 +2373,46 @@
   <sheetData>
     <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B1" s="34"/>
-      <c r="C1" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="48"/>
+      <c r="C1" s="47" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B2" s="35"/>
-      <c r="C2" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="49"/>
+      <c r="C2" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="50">
+      <c r="A3" s="49">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="51"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="55"/>
+      <c r="C4" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="54"/>
     </row>
     <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>5</v>
+      <c r="D5" s="46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2425,10 +2423,10 @@
         <v>10</v>
       </c>
       <c r="C6" s="38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2439,10 +2437,10 @@
         <v>20</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2452,11 +2450,11 @@
       <c r="B8" s="24">
         <v>45</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>9</v>
+      <c r="C8" s="40" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2466,10 +2464,10 @@
       <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="63"/>
+      <c r="C9" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="62"/>
     </row>
     <row r="10" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A10" s="17">
@@ -2478,11 +2476,11 @@
       <c r="B10" s="24">
         <v>60</v>
       </c>
-      <c r="C10" s="42" t="s">
-        <v>12</v>
+      <c r="C10" s="40" t="s">
+        <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2492,11 +2490,11 @@
       <c r="B11" s="24">
         <v>60</v>
       </c>
-      <c r="C11" s="43" t="s">
-        <v>19</v>
+      <c r="C11" s="41" t="s">
+        <v>17</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2506,10 +2504,10 @@
       <c r="B12" s="24">
         <v>60</v>
       </c>
-      <c r="C12" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="63"/>
+      <c r="C12" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A13" s="17">
@@ -2519,10 +2517,10 @@
         <v>75</v>
       </c>
       <c r="C13" s="39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2533,10 +2531,10 @@
         <v>75</v>
       </c>
       <c r="C14" s="39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2546,10 +2544,10 @@
       <c r="B15" s="24">
         <v>40</v>
       </c>
-      <c r="C15" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="63"/>
+      <c r="C15" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A16" s="17">
@@ -2558,64 +2556,64 @@
       <c r="B16" s="24">
         <v>30</v>
       </c>
-      <c r="C16" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="74"/>
+      <c r="C16" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="77"/>
     </row>
     <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B17" s="22"/>
-      <c r="C17" s="54" t="s">
+      <c r="C17" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="54"/>
+      <c r="D17" s="53"/>
     </row>
     <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
+      <c r="A18" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
     </row>
     <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
       <c r="B19" s="35"/>
-      <c r="C19" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="49"/>
+      <c r="C19" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="50">
+      <c r="A20" s="49">
         <v>0.35416666666666669</v>
       </c>
       <c r="B20" s="21"/>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="52"/>
+      <c r="D20" s="51"/>
     </row>
     <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="51"/>
+      <c r="A21" s="50"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="55"/>
+      <c r="C21" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="17"/>
       <c r="B22" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>5</v>
+      <c r="D22" s="46" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2626,10 +2624,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
@@ -2640,10 +2638,10 @@
         <v>75</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2653,10 +2651,10 @@
       <c r="B25" s="24">
         <v>15</v>
       </c>
-      <c r="C25" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="63"/>
+      <c r="C25" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="62"/>
     </row>
     <row r="26" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A26" s="17">
@@ -2666,10 +2664,10 @@
         <v>75</v>
       </c>
       <c r="C26" s="38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2679,10 +2677,10 @@
       <c r="B27" s="24">
         <v>60</v>
       </c>
-      <c r="C27" s="66" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="63"/>
+      <c r="C27" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="62"/>
     </row>
     <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
@@ -2692,10 +2690,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
@@ -2706,10 +2704,10 @@
         <v>20</v>
       </c>
       <c r="C29" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>34</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2720,10 +2718,10 @@
         <v>20</v>
       </c>
       <c r="C30" s="39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
@@ -2733,10 +2731,10 @@
       <c r="B31" s="24">
         <v>155</v>
       </c>
-      <c r="C31" s="66" t="s">
-        <v>13</v>
-      </c>
-      <c r="D31" s="63"/>
+      <c r="C31" s="65" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="62"/>
     </row>
     <row r="32" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A32" s="17">
@@ -2745,46 +2743,46 @@
       <c r="B32" s="24">
         <v>30</v>
       </c>
-      <c r="C32" s="73" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="74"/>
+      <c r="C32" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="77"/>
     </row>
     <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A33" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B33" s="22"/>
-      <c r="C33" s="54" t="s">
+      <c r="C33" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="54"/>
+      <c r="D33" s="53"/>
     </row>
     <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="A34" s="66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
     </row>
     <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="68"/>
+      <c r="C35" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="71"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="22">

--- a/Events/2017-06-13-NYC/Schedule/Speaker Two Room Schedule.xlsx
+++ b/Events/2017-06-13-NYC/Schedule/Speaker Two Room Schedule.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9576" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="58">
   <si>
     <t>Speaker</t>
   </si>
@@ -243,6 +243,57 @@
   <si>
     <t>Winter Garden 5412</t>
   </si>
+  <si>
+    <t xml:space="preserve">Containers and More… Working Lunch </t>
+  </si>
+  <si>
+    <t>Tara Webb +Audience</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Content: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://github.com/dstolts/70-534</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">         Socialize: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>#70-534 @ITProGuru</t>
+    </r>
+  </si>
+  <si>
+    <t>70-534 Certification Jump Start Group 1
+Architecting Azure Solutions</t>
+  </si>
+  <si>
+    <t>70-534 Certification Jump Start Group 2
+Architecting Azure Solutions</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +303,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +394,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -708,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -801,137 +908,238 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="13" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="13" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,58 +1469,58 @@
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" style="18" customWidth="1"/>
-    <col min="3" max="3" width="35.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="57.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="36.21875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="61.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="9" max="9" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="57.28515625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="61.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" customWidth="1"/>
+    <col min="9" max="9" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="19"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-    </row>
-    <row r="2" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+    </row>
+    <row r="2" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2"/>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="49">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="52">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="21"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="52"/>
-    </row>
-    <row r="4" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="50"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="4" spans="1:7" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="53"/>
       <c r="B4" s="20"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="54"/>
-    </row>
-    <row r="5" spans="1:7" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="17"/>
       <c r="B5" s="23" t="s">
         <v>28</v>
@@ -1320,17 +1528,17 @@
       <c r="C5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A6" s="17">
         <v>0.36805555555555558</v>
       </c>
@@ -1346,7 +1554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="17">
         <v>0.375</v>
       </c>
@@ -1359,14 +1567,14 @@
       <c r="D7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="37" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="17">
         <v>0.38194444444444442</v>
       </c>
@@ -1379,10 +1587,10 @@
       <c r="D8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="70"/>
-      <c r="F8" s="68"/>
-    </row>
-    <row r="9" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="E8" s="40"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A9" s="17">
         <v>0.3888888888888889</v>
       </c>
@@ -1402,23 +1610,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="17">
         <v>0.4201388888888889</v>
       </c>
       <c r="B10" s="24">
         <v>15</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="64"/>
-      <c r="E10" s="61" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="62"/>
-    </row>
-    <row r="11" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="F10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A11" s="17">
         <v>0.43055555555555558</v>
       </c>
@@ -1438,7 +1646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A12" s="17">
         <v>0.47222222222222227</v>
       </c>
@@ -1458,23 +1666,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A13" s="17">
         <v>0.51388888888888895</v>
       </c>
       <c r="B13" s="24">
         <v>60</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="62"/>
-    </row>
-    <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="F13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="17">
         <v>5.5555555555555552E-2</v>
       </c>
@@ -1495,7 +1703,7 @@
       </c>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A15" s="17">
         <v>0.1076388888888889</v>
       </c>
@@ -1516,92 +1724,92 @@
       </c>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A16" s="17">
         <v>0.15972222222222224</v>
       </c>
       <c r="B16" s="24">
         <v>40</v>
       </c>
-      <c r="C16" s="63" t="s">
+      <c r="C16" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="64"/>
-      <c r="E16" s="61" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="62"/>
-    </row>
-    <row r="17" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F16" s="51"/>
+    </row>
+    <row r="17" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="17">
         <v>0.6875</v>
       </c>
       <c r="B17" s="24">
         <v>30</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="58"/>
-      <c r="E17" s="59" t="s">
+      <c r="D17" s="45"/>
+      <c r="E17" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="60"/>
-    </row>
-    <row r="18" spans="1:6" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F17" s="47"/>
+    </row>
+    <row r="18" spans="1:6" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B18" s="22"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="56"/>
-    </row>
-    <row r="19" spans="1:6" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="66" t="s">
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" ht="23.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-    </row>
-    <row r="20" spans="1:6" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48"/>
-    </row>
-    <row r="21" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A21" s="49">
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+    </row>
+    <row r="21" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="52">
         <v>0.35416666666666669</v>
       </c>
       <c r="B21" s="21"/>
-      <c r="C21" s="51" t="s">
+      <c r="C21" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-    </row>
-    <row r="22" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="50"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+    </row>
+    <row r="22" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="53"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="54"/>
-    </row>
-    <row r="23" spans="1:6" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
+    </row>
+    <row r="23" spans="1:6" ht="34.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="17"/>
       <c r="B23" s="23" t="s">
         <v>28</v>
@@ -1609,17 +1817,17 @@
       <c r="C23" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="35" t="s">
         <v>51</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="46" t="s">
+      <c r="F23" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A24" s="17">
         <v>0.375</v>
       </c>
@@ -1639,7 +1847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A25" s="17">
         <v>0.3888888888888889</v>
       </c>
@@ -1659,23 +1867,23 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A26" s="17">
         <v>0.44097222222222227</v>
       </c>
       <c r="B26" s="24">
         <v>15</v>
       </c>
-      <c r="C26" s="63" t="s">
+      <c r="C26" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D26" s="64"/>
-      <c r="E26" s="61" t="s">
+      <c r="D26" s="49"/>
+      <c r="E26" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="62"/>
-    </row>
-    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.45">
+      <c r="F26" s="51"/>
+    </row>
+    <row r="27" spans="1:6" ht="69.75" x14ac:dyDescent="0.35">
       <c r="A27" s="17">
         <v>0.4513888888888889</v>
       </c>
@@ -1695,23 +1903,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A28" s="17">
         <v>0.50347222222222221</v>
       </c>
       <c r="B28" s="24">
         <v>60</v>
       </c>
-      <c r="C28" s="65" t="s">
+      <c r="C28" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61" t="s">
+      <c r="D28" s="50"/>
+      <c r="E28" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="62"/>
-    </row>
-    <row r="29" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="F28" s="51"/>
+    </row>
+    <row r="29" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="17">
         <v>0.54513888888888895</v>
       </c>
@@ -1731,7 +1939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="17">
         <v>0.55902777777777779</v>
       </c>
@@ -1751,7 +1959,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="17">
         <v>0.57291666666666663</v>
       </c>
@@ -1771,75 +1979,60 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A32" s="17">
         <v>0.58680555555555558</v>
       </c>
       <c r="B32" s="24">
         <v>155</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="64"/>
-      <c r="E32" s="61" t="s">
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="62"/>
-    </row>
-    <row r="33" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F32" s="51"/>
+    </row>
+    <row r="33" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="17">
         <v>0.6875</v>
       </c>
       <c r="B33" s="24">
         <v>30</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="58"/>
-      <c r="E33" s="59" t="s">
+      <c r="D33" s="45"/>
+      <c r="E33" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="60"/>
-    </row>
-    <row r="34" spans="1:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="F33" s="47"/>
+    </row>
+    <row r="34" spans="1:6" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>0.70833333333333337</v>
       </c>
       <c r="B34" s="22"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-    </row>
-    <row r="35" spans="1:6" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A35" s="66" t="s">
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="43"/>
+    </row>
+    <row r="35" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A35" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="C20:F20"/>
@@ -1856,6 +2049,21 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" location="syllabus-3"/>
@@ -1885,447 +2093,443 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" style="18" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="89.21875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="61.42578125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="36.6" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-    </row>
-    <row r="2" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-    </row>
-    <row r="3" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A3" s="49">
+      <c r="D2" s="63"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
-    </row>
-    <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="53" t="s">
+      <c r="D3" s="70"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="54"/>
-    </row>
-    <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="23" t="s">
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="17">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
         <v>0.375</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="79">
         <v>10</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="81" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="17">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>0.38194444444444442</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="79">
         <v>10</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="83" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>0.3888888888888889</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="79">
         <v>45</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="43" t="s">
+      <c r="D8" s="85" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
         <v>0.4201388888888889</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="79">
         <v>15</v>
       </c>
-      <c r="C9" s="63" t="s">
+      <c r="C9" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="73"/>
-    </row>
-    <row r="10" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+      <c r="D9" s="87"/>
+    </row>
+    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>0.43055555555555558</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="79">
         <v>60</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="85" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
         <v>0.47222222222222227</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="79">
         <v>60</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="43" t="s">
+      <c r="D11" s="85" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
         <v>0.51388888888888895</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="79">
         <v>60</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
+      <c r="D12" s="91"/>
+    </row>
+    <row r="13" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="79">
         <v>75</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="85" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
         <v>0.1076388888888889</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="79">
         <v>75</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="85" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
         <v>0.15972222222222224</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="79">
         <v>40</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="73"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="17">
+      <c r="D15" s="87"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="75">
         <v>0.6875</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="79">
         <v>30</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="75"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="16">
+      <c r="D16" s="94"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="95">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="54"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-    </row>
-    <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="48" t="s">
+      <c r="D17" s="74"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="49">
+      <c r="D19" s="66"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="51"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="50"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="53" t="s">
+      <c r="D20" s="70"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="54"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23" t="s">
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="78" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
         <v>0.375</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="79">
         <v>20</v>
       </c>
-      <c r="C23" s="27" t="s">
+      <c r="C23" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="42" t="s">
+      <c r="D23" s="81" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
         <v>0.3888888888888889</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="79">
         <v>75</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C24" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="43" t="s">
+      <c r="D24" s="85" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="75">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="79">
         <v>15</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="73"/>
-    </row>
-    <row r="26" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A26" s="17">
+      <c r="D25" s="87"/>
+    </row>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="75">
         <v>0.4513888888888889</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="79">
         <v>75</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="85" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="75">
         <v>0.50347222222222221</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="79">
         <v>60</v>
       </c>
-      <c r="C27" s="65" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="62"/>
-    </row>
-    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+      <c r="C27" s="89" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="75">
         <v>0.54513888888888895</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="79">
         <v>20</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="43" t="s">
+      <c r="D28" s="85" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="75">
         <v>0.55902777777777779</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="79">
         <v>20</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="89" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="43" t="s">
+      <c r="D29" s="85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
         <v>0.57291666666666663</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="79">
         <v>20</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="92" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="85" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.55" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="75">
         <v>0.58680555555555558</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="79">
         <v>155</v>
       </c>
-      <c r="C31" s="63" t="s">
+      <c r="C31" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="73"/>
-    </row>
-    <row r="32" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="17">
+      <c r="D31" s="87"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="75">
         <v>0.6875</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="79">
         <v>30</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="75"/>
-    </row>
-    <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="16">
+      <c r="D32" s="94"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="95">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="96"/>
+      <c r="C33" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="53"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="71" t="s">
+      <c r="D33" s="73"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="71"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="D35" s="61"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
+  <mergeCells count="21">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="C35:D38"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
@@ -2337,6 +2541,11 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D8" r:id="rId1" location="syllabus-3"/>
@@ -2359,433 +2568,452 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:D38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="14" style="18" customWidth="1"/>
-    <col min="3" max="3" width="25.77734375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="113" style="5" customWidth="1"/>
-    <col min="5" max="5" width="58.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="70" style="5" customWidth="1"/>
+    <col min="5" max="5" width="58.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="67.5" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="34"/>
-      <c r="C1" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="47"/>
-    </row>
-    <row r="2" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B2" s="35"/>
-      <c r="C2" s="48" t="s">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="62"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="48"/>
-    </row>
-    <row r="3" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="49">
+      <c r="D2" s="66"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="67">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51"/>
-    </row>
-    <row r="4" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="50"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="53" t="s">
+      <c r="D3" s="69"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="54"/>
-    </row>
-    <row r="5" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="23" t="s">
+      <c r="D4" s="74"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="75"/>
+      <c r="B5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A6" s="17">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="75">
         <v>0.36458333333333331</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="79">
         <v>10</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="105" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A7" s="17">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="75">
         <v>0.375</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="79">
         <v>20</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="104" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="105" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A8" s="17">
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="75">
         <v>0.3888888888888889</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="79">
         <v>45</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="105" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="17">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="75">
         <v>0.4201388888888889</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="79">
         <v>15</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="90" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="62"/>
-    </row>
-    <row r="10" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A10" s="17">
+      <c r="D9" s="91"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="75">
         <v>0.43055555555555558</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="79">
         <v>60</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="106" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="105" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A11" s="17">
+    <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="75">
         <v>0.47222222222222227</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="79">
         <v>60</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="108" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="17">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="75">
         <v>0.51388888888888895</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="79">
         <v>60</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="62"/>
-    </row>
-    <row r="13" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A13" s="17">
+      <c r="D12" s="91"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="75">
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="79">
         <v>75</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="108" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A14" s="17">
+    <row r="14" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="75">
         <v>0.1076388888888889</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="79">
         <v>75</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="108" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A15" s="17">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="75">
         <v>0.15972222222222224</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="79">
         <v>40</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="62"/>
-    </row>
-    <row r="16" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="17">
+      <c r="D15" s="91"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="75">
         <v>0.6875</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="79">
         <v>30</v>
       </c>
-      <c r="C16" s="76" t="s">
+      <c r="C16" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="77"/>
-    </row>
-    <row r="17" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="16">
+      <c r="D16" s="111"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="95">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="53" t="s">
+      <c r="B17" s="96"/>
+      <c r="C17" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D17" s="53"/>
-    </row>
-    <row r="18" spans="1:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-    </row>
-    <row r="19" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.65">
-      <c r="B19" s="35"/>
-      <c r="C19" s="48" t="s">
+      <c r="D17" s="73"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="99"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="48"/>
-    </row>
-    <row r="20" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A20" s="49">
+      <c r="D19" s="66"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="67">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="68"/>
+      <c r="C20" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="51"/>
-    </row>
-    <row r="21" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="50"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="53" t="s">
+      <c r="D20" s="69"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="54"/>
-    </row>
-    <row r="22" spans="1:4" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="17"/>
-      <c r="B22" s="23" t="s">
+      <c r="D21" s="74"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="75"/>
+      <c r="B22" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="46" t="s">
+      <c r="D22" s="103" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A23" s="17">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="75">
         <v>0.375</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="79">
         <v>20</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="105" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="46.8" x14ac:dyDescent="0.45">
-      <c r="A24" s="17">
+    <row r="24" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="75">
         <v>0.3888888888888889</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="79">
         <v>75</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="105" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A25" s="17">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="75">
         <v>0.44097222222222227</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="79">
         <v>15</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C25" s="90" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="62"/>
-    </row>
-    <row r="26" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A26" s="17">
+      <c r="D25" s="91"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="75">
         <v>0.4513888888888889</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="79">
         <v>75</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="112" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="17">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="75">
         <v>0.50347222222222221</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="79">
         <v>60</v>
       </c>
-      <c r="C27" s="65" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" s="62"/>
-    </row>
-    <row r="28" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A28" s="17">
+      <c r="C27" s="109" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="98" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="75">
         <v>0.54513888888888895</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="79">
         <v>20</v>
       </c>
-      <c r="C28" s="39" t="s">
+      <c r="C28" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="113" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="17">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="75">
         <v>0.55902777777777779</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="79">
         <v>20</v>
       </c>
-      <c r="C29" s="39" t="s">
+      <c r="C29" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="113" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A30" s="17">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="75">
         <v>0.57291666666666663</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="79">
         <v>20</v>
       </c>
-      <c r="C30" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="33" t="s">
+      <c r="C30" s="109" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="113" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A31" s="17">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="75">
         <v>0.58680555555555558</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="79">
         <v>155</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="62"/>
-    </row>
-    <row r="32" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="17">
+      <c r="D31" s="91"/>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="75">
         <v>0.6875</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="79">
         <v>30</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="77"/>
-    </row>
-    <row r="33" spans="1:4" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="16">
+      <c r="D32" s="111"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="95">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B33" s="22"/>
-      <c r="C33" s="53" t="s">
+      <c r="B33" s="96"/>
+      <c r="C33" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="D33" s="53"/>
-    </row>
-    <row r="34" spans="1:4" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A34" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-    </row>
-    <row r="35" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="71" t="s">
+      <c r="D33" s="73"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="99"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="114" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="71"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
+      <c r="D35" s="114"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="99"/>
+      <c r="B36" s="99"/>
+      <c r="C36" s="114"/>
+      <c r="D36" s="114"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="99"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="99"/>
+      <c r="B38" s="99"/>
+      <c r="C38" s="114"/>
+      <c r="D38" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
+    <mergeCell ref="C35:D38"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:D34"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
@@ -2801,13 +3029,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C35:D38"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:D34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D10" r:id="rId1" location="syllabus-3"/>
